--- a/8char_similarity_theta.xlsx
+++ b/8char_similarity_theta.xlsx
@@ -366,310 +366,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:1">
+      <c r="A2">
         <v>-0.05472724016115491</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:1">
+      <c r="A3">
         <v>0.1031080303397426</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:1">
+      <c r="A4">
         <v>-0.1850574348349666</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:1">
+      <c r="A5">
         <v>0.07383976961575585</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:1">
+      <c r="A6">
         <v>-0.1401563283738066</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:1">
+      <c r="A7">
         <v>0.3294011460593761</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:1">
+      <c r="A8">
         <v>0.04057879191017374</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:1">
+      <c r="A9">
         <v>0.1480775420302461</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:1">
+      <c r="A10">
         <v>-0.2334474752247345</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:1">
+      <c r="A11">
         <v>0.1092685977953548</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:1">
+      <c r="A12">
         <v>-2.376022984970865</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:1">
+      <c r="A13">
         <v>-1.204905436702784</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
+    <row r="14" spans="1:1">
+      <c r="A14">
         <v>-1.87314001899257</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
+    <row r="15" spans="1:1">
+      <c r="A15">
         <v>-2.39798417601877</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:1">
+      <c r="A16">
         <v>-2.005766987662148</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:1">
+      <c r="A17">
         <v>-0.1431664844884904</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:1">
+      <c r="A18">
         <v>0.04143234661124157</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
+    <row r="19" spans="1:1">
+      <c r="A19">
         <v>0.146590844113721</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:1">
+      <c r="A20">
         <v>0.1336826935014415</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21">
+    <row r="21" spans="1:1">
+      <c r="A21">
         <v>0.2620552879610674</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
+    <row r="22" spans="1:1">
+      <c r="A22">
         <v>0.05949205752809376</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:1">
+      <c r="A23">
         <v>0.372234346671399</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:1">
+      <c r="A24">
         <v>0.5868850232098218</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:1">
+      <c r="A25">
         <v>0.549642700282222</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:1">
+      <c r="A26">
         <v>0.4386904408869574</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
+    <row r="27" spans="1:1">
+      <c r="A27">
         <v>0.4933112897672788</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:1">
+      <c r="A28">
         <v>-1.839029664601835</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:1">
+      <c r="A29">
         <v>3.751286125537429</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:1">
+      <c r="A30">
         <v>1.260112442904641</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:1">
+      <c r="A31">
         <v>3.376918231750698</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:1">
+      <c r="A32">
         <v>2.57621505115875</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
+    <row r="33" spans="1:1">
+      <c r="A33">
         <v>3.096250939068144</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
+    <row r="34" spans="1:1">
+      <c r="A34">
         <v>3.377687008770982</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
+    <row r="35" spans="1:1">
+      <c r="A35">
         <v>3.185556717058092</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
+    <row r="36" spans="1:1">
+      <c r="A36">
         <v>0.04919982273483979</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
+    <row r="37" spans="1:1">
+      <c r="A37">
         <v>0.02731481392705947</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
+    <row r="38" spans="1:1">
+      <c r="A38">
         <v>0.5726107209806949</v>
       </c>
     </row>
